--- a/www.eia.gov/electricity/monthly/xls/table_2_14_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_2_14_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
   <si>
     <t>Table 2.14.A. Consumption of Wood / Wood Waste Biomass for Electricity Generation by State, by Sector,</t>
   </si>
   <si>
-    <t>October 2016 and October 2015 (Billion Btus)</t>
+    <t>November 2016 and November 2015 (Billion Btus)</t>
   </si>
   <si>
     <t/>
@@ -55,10 +55,10 @@
     <t>Industrial Sector</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -1356,37 +1356,37 @@
         <v>13</v>
       </c>
       <c r="B6" s="13">
-        <v>3930</v>
+        <v>4496</v>
       </c>
       <c r="C6" s="13">
-        <v>4822</v>
+        <v>4963</v>
       </c>
       <c r="D6" s="14">
-        <v>-0.18</v>
+        <v>-9.4E-2</v>
       </c>
       <c r="E6" s="13">
-        <v>755</v>
+        <v>857</v>
       </c>
       <c r="F6" s="13">
-        <v>910</v>
+        <v>724</v>
       </c>
       <c r="G6" s="13">
-        <v>2762</v>
+        <v>3106</v>
       </c>
       <c r="H6" s="13">
-        <v>3372</v>
+        <v>3663</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" s="13">
-        <v>412</v>
+        <v>532</v>
       </c>
       <c r="L6" s="13">
-        <v>537</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1394,13 +1394,13 @@
         <v>15</v>
       </c>
       <c r="B7" s="16">
-        <v>228</v>
+        <v>338</v>
       </c>
       <c r="C7" s="16">
-        <v>269</v>
+        <v>97</v>
       </c>
       <c r="D7" s="17">
-        <v>-0.15</v>
+        <v>2.48</v>
       </c>
       <c r="E7" s="16">
         <v>0</v>
@@ -1409,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="16">
-        <v>228</v>
+        <v>338</v>
       </c>
       <c r="H7" s="16">
-        <v>269</v>
+        <v>97</v>
       </c>
       <c r="I7" s="16">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>16</v>
       </c>
       <c r="B8" s="16">
-        <v>1436</v>
+        <v>1536</v>
       </c>
       <c r="C8" s="16">
-        <v>2086</v>
+        <v>2404</v>
       </c>
       <c r="D8" s="17">
-        <v>-0.31</v>
+        <v>-0.36</v>
       </c>
       <c r="E8" s="16">
         <v>0</v>
@@ -1447,22 +1447,22 @@
         <v>0</v>
       </c>
       <c r="G8" s="16">
-        <v>1024</v>
+        <v>1004</v>
       </c>
       <c r="H8" s="16">
-        <v>1548</v>
+        <v>1830</v>
       </c>
       <c r="I8" s="16">
         <v>0</v>
       </c>
       <c r="J8" s="16">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="K8" s="16">
-        <v>412</v>
+        <v>532</v>
       </c>
       <c r="L8" s="16">
-        <v>537</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1473,7 +1473,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="16">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>14</v>
@@ -1488,7 +1488,7 @@
         <v>14</v>
       </c>
       <c r="H9" s="16">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="I9" s="16">
         <v>0</v>
@@ -1508,25 +1508,25 @@
         <v>18</v>
       </c>
       <c r="B10" s="16">
-        <v>1710</v>
+        <v>1972</v>
       </c>
       <c r="C10" s="16">
-        <v>1622</v>
+        <v>1719</v>
       </c>
       <c r="D10" s="17">
-        <v>5.3999999999999999E-2</v>
+        <v>0.15</v>
       </c>
       <c r="E10" s="16">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="F10" s="16">
-        <v>465</v>
+        <v>370</v>
       </c>
       <c r="G10" s="16">
-        <v>1238</v>
+        <v>1475</v>
       </c>
       <c r="H10" s="16">
-        <v>1158</v>
+        <v>1349</v>
       </c>
       <c r="I10" s="16">
         <v>0</v>
@@ -1584,25 +1584,25 @@
         <v>21</v>
       </c>
       <c r="B12" s="16">
-        <v>417</v>
+        <v>508</v>
       </c>
       <c r="C12" s="16">
-        <v>636</v>
+        <v>554</v>
       </c>
       <c r="D12" s="17">
-        <v>-0.34</v>
+        <v>-8.4000000000000005E-2</v>
       </c>
       <c r="E12" s="16">
-        <v>282</v>
+        <v>360</v>
       </c>
       <c r="F12" s="16">
-        <v>445</v>
+        <v>354</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="16">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>14</v>
@@ -1622,13 +1622,13 @@
         <v>22</v>
       </c>
       <c r="B13" s="13">
-        <v>992</v>
+        <v>1086</v>
       </c>
       <c r="C13" s="13">
-        <v>964</v>
+        <v>1046</v>
       </c>
       <c r="D13" s="14">
-        <v>2.9000000000000001E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="E13" s="13">
         <v>0</v>
@@ -1637,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="13">
-        <v>556</v>
+        <v>650</v>
       </c>
       <c r="H13" s="13">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="I13" s="13">
         <v>0</v>
@@ -1649,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="13">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L13" s="13">
-        <v>432</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1698,13 +1698,13 @@
         <v>24</v>
       </c>
       <c r="B15" s="16">
-        <v>645</v>
+        <v>738</v>
       </c>
       <c r="C15" s="16">
-        <v>606</v>
+        <v>631</v>
       </c>
       <c r="D15" s="17">
-        <v>6.4000000000000001E-2</v>
+        <v>0.17</v>
       </c>
       <c r="E15" s="16">
         <v>0</v>
@@ -1713,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="16">
-        <v>556</v>
+        <v>650</v>
       </c>
       <c r="H15" s="16">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="I15" s="16">
         <v>0</v>
@@ -1725,10 +1725,10 @@
         <v>0</v>
       </c>
       <c r="K15" s="16">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L15" s="16">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1736,13 +1736,13 @@
         <v>25</v>
       </c>
       <c r="B16" s="16">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C16" s="16">
-        <v>358</v>
+        <v>415</v>
       </c>
       <c r="D16" s="17">
-        <v>-0.03</v>
+        <v>-0.16</v>
       </c>
       <c r="E16" s="16">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="16">
-        <v>4</v>
+        <v>0.37</v>
       </c>
       <c r="I16" s="16">
         <v>0</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="K16" s="16">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L16" s="16">
-        <v>354</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1774,25 +1774,25 @@
         <v>26</v>
       </c>
       <c r="B17" s="13">
-        <v>2114</v>
+        <v>2327</v>
       </c>
       <c r="C17" s="13">
-        <v>2496</v>
+        <v>2461</v>
       </c>
       <c r="D17" s="14">
-        <v>-0.15</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="E17" s="13">
-        <v>239</v>
+        <v>540</v>
       </c>
       <c r="F17" s="13">
-        <v>576</v>
+        <v>534</v>
       </c>
       <c r="G17" s="13">
-        <v>958</v>
+        <v>888</v>
       </c>
       <c r="H17" s="13">
-        <v>952</v>
+        <v>966</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -1801,10 +1801,10 @@
         <v>0</v>
       </c>
       <c r="K17" s="13">
-        <v>917</v>
+        <v>899</v>
       </c>
       <c r="L17" s="13">
-        <v>968</v>
+        <v>961</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1888,13 +1888,13 @@
         <v>29</v>
       </c>
       <c r="B20" s="16">
-        <v>1483</v>
+        <v>1428</v>
       </c>
       <c r="C20" s="16">
-        <v>1435</v>
+        <v>1464</v>
       </c>
       <c r="D20" s="17">
-        <v>3.4000000000000002E-2</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="E20" s="16">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="16">
-        <v>903</v>
+        <v>832</v>
       </c>
       <c r="H20" s="16">
-        <v>864</v>
+        <v>910</v>
       </c>
       <c r="I20" s="16">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="16">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="L20" s="16">
-        <v>570</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1926,13 +1926,13 @@
         <v>30</v>
       </c>
       <c r="B21" s="16">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C21" s="16">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="D21" s="17">
-        <v>-0.32</v>
+        <v>-0.26</v>
       </c>
       <c r="E21" s="16">
         <v>0</v>
@@ -1940,11 +1940,11 @@
       <c r="F21" s="16">
         <v>0</v>
       </c>
-      <c r="G21" s="16" t="s">
-        <v>14</v>
+      <c r="G21" s="16">
+        <v>56</v>
       </c>
       <c r="H21" s="16">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I21" s="16">
         <v>0</v>
@@ -1953,10 +1953,10 @@
         <v>0</v>
       </c>
       <c r="K21" s="16">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L21" s="16">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1964,25 +1964,25 @@
         <v>31</v>
       </c>
       <c r="B22" s="16">
-        <v>450</v>
+        <v>724</v>
       </c>
       <c r="C22" s="16">
-        <v>796</v>
+        <v>761</v>
       </c>
       <c r="D22" s="17">
-        <v>-0.43</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="E22" s="16">
-        <v>239</v>
+        <v>540</v>
       </c>
       <c r="F22" s="16">
-        <v>576</v>
+        <v>534</v>
       </c>
       <c r="G22" s="16">
         <v>0</v>
       </c>
       <c r="H22" s="16">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I22" s="16">
         <v>0</v>
@@ -1991,10 +1991,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="16">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="L22" s="16">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2002,37 +2002,37 @@
         <v>32</v>
       </c>
       <c r="B23" s="13">
-        <v>905</v>
+        <v>920</v>
       </c>
       <c r="C23" s="13">
-        <v>844</v>
+        <v>1131</v>
       </c>
       <c r="D23" s="14">
-        <v>7.0999999999999994E-2</v>
+        <v>-0.19</v>
       </c>
       <c r="E23" s="13">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="F23" s="13">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="G23" s="13">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="H23" s="13">
-        <v>385</v>
+        <v>627</v>
       </c>
       <c r="I23" s="13">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J23" s="13">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K23" s="13">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="L23" s="13">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2116,37 +2116,37 @@
         <v>35</v>
       </c>
       <c r="B26" s="16">
-        <v>885</v>
+        <v>920</v>
       </c>
       <c r="C26" s="16">
-        <v>821</v>
+        <v>1130</v>
       </c>
       <c r="D26" s="17">
-        <v>7.8E-2</v>
+        <v>-0.19</v>
       </c>
       <c r="E26" s="16">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="F26" s="16">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="G26" s="16">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="H26" s="16">
-        <v>385</v>
+        <v>627</v>
       </c>
       <c r="I26" s="16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J26" s="16">
         <v>0</v>
       </c>
       <c r="K26" s="16">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="L26" s="16">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2154,13 +2154,13 @@
         <v>36</v>
       </c>
       <c r="B27" s="16">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C27" s="16">
-        <v>23</v>
-      </c>
-      <c r="D27" s="17">
-        <v>-0.16</v>
+        <v>0</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="E27" s="16">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="16">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J27" s="16">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K27" s="16">
         <v>0</v>
@@ -2306,37 +2306,37 @@
         <v>40</v>
       </c>
       <c r="B31" s="13">
-        <v>8458</v>
+        <v>8746</v>
       </c>
       <c r="C31" s="13">
-        <v>8362</v>
+        <v>9788</v>
       </c>
       <c r="D31" s="14">
-        <v>1.0999999999999999E-2</v>
+        <v>-0.11</v>
       </c>
       <c r="E31" s="13">
-        <v>1111</v>
+        <v>848</v>
       </c>
       <c r="F31" s="13">
-        <v>864</v>
+        <v>1567</v>
       </c>
       <c r="G31" s="13">
-        <v>2149</v>
+        <v>2554</v>
       </c>
       <c r="H31" s="13">
-        <v>2357</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>14</v>
+        <v>3015</v>
+      </c>
+      <c r="I31" s="13">
+        <v>17</v>
       </c>
       <c r="J31" s="13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K31" s="13">
-        <v>5182</v>
+        <v>5327</v>
       </c>
       <c r="L31" s="13">
-        <v>5125</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2420,13 +2420,13 @@
         <v>43</v>
       </c>
       <c r="B34" s="16">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="C34" s="16">
-        <v>1120</v>
+        <v>1620</v>
       </c>
       <c r="D34" s="17">
-        <v>0.41</v>
+        <v>-2.4E-2</v>
       </c>
       <c r="E34" s="16">
         <v>0</v>
@@ -2435,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="16">
-        <v>902</v>
+        <v>821</v>
       </c>
       <c r="H34" s="16">
-        <v>356</v>
+        <v>911</v>
       </c>
       <c r="I34" s="16">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="K34" s="16">
-        <v>682</v>
+        <v>760</v>
       </c>
       <c r="L34" s="16">
-        <v>764</v>
+        <v>709</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2458,13 +2458,13 @@
         <v>44</v>
       </c>
       <c r="B35" s="16">
-        <v>2273</v>
+        <v>2608</v>
       </c>
       <c r="C35" s="16">
-        <v>2269</v>
+        <v>2612</v>
       </c>
       <c r="D35" s="17">
-        <v>2E-3</v>
+        <v>-1E-3</v>
       </c>
       <c r="E35" s="16">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="16">
-        <v>463</v>
+        <v>593</v>
       </c>
       <c r="H35" s="16">
-        <v>334</v>
+        <v>681</v>
       </c>
       <c r="I35" s="16">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="16">
-        <v>1810</v>
+        <v>2015</v>
       </c>
       <c r="L35" s="16">
-        <v>1934</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2496,13 +2496,13 @@
         <v>45</v>
       </c>
       <c r="B36" s="16">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="16">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D36" s="17">
-        <v>0.53</v>
+        <v>0.36</v>
       </c>
       <c r="E36" s="16">
         <v>0</v>
@@ -2516,17 +2516,17 @@
       <c r="H36" s="16">
         <v>0</v>
       </c>
-      <c r="I36" s="16" t="s">
-        <v>14</v>
+      <c r="I36" s="16">
+        <v>17</v>
       </c>
       <c r="J36" s="16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K36" s="16">
         <v>64</v>
       </c>
       <c r="L36" s="16">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2534,13 +2534,13 @@
         <v>46</v>
       </c>
       <c r="B37" s="16">
-        <v>935</v>
+        <v>1040</v>
       </c>
       <c r="C37" s="16">
-        <v>1429</v>
+        <v>1479</v>
       </c>
       <c r="D37" s="17">
-        <v>-0.35</v>
+        <v>-0.3</v>
       </c>
       <c r="E37" s="16">
         <v>0</v>
@@ -2549,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="16">
-        <v>318</v>
+        <v>420</v>
       </c>
       <c r="H37" s="16">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="I37" s="16">
         <v>0</v>
@@ -2561,10 +2561,10 @@
         <v>0</v>
       </c>
       <c r="K37" s="16">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L37" s="16">
-        <v>580</v>
+        <v>643</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2572,25 +2572,25 @@
         <v>47</v>
       </c>
       <c r="B38" s="16">
-        <v>2007</v>
+        <v>2096</v>
       </c>
       <c r="C38" s="16">
-        <v>1886</v>
+        <v>2093</v>
       </c>
       <c r="D38" s="17">
-        <v>6.4000000000000001E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E38" s="16">
-        <v>186</v>
+        <v>368</v>
       </c>
       <c r="F38" s="16">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="G38" s="16">
-        <v>439</v>
+        <v>472</v>
       </c>
       <c r="H38" s="16">
-        <v>480</v>
+        <v>529</v>
       </c>
       <c r="I38" s="16">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="K38" s="16">
-        <v>1381</v>
+        <v>1256</v>
       </c>
       <c r="L38" s="16">
-        <v>1090</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2610,25 +2610,25 @@
         <v>48</v>
       </c>
       <c r="B39" s="16">
-        <v>1577</v>
+        <v>1339</v>
       </c>
       <c r="C39" s="16">
-        <v>1604</v>
+        <v>1924</v>
       </c>
       <c r="D39" s="17">
-        <v>-1.7000000000000001E-2</v>
+        <v>-0.3</v>
       </c>
       <c r="E39" s="16">
-        <v>924</v>
+        <v>479</v>
       </c>
       <c r="F39" s="16">
-        <v>548</v>
+        <v>1184</v>
       </c>
       <c r="G39" s="16">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="H39" s="16">
-        <v>338</v>
+        <v>58</v>
       </c>
       <c r="I39" s="16">
         <v>0</v>
@@ -2637,10 +2637,10 @@
         <v>0</v>
       </c>
       <c r="K39" s="16">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="L39" s="16">
-        <v>719</v>
+        <v>681</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2686,13 +2686,13 @@
         <v>50</v>
       </c>
       <c r="B41" s="13">
-        <v>2950</v>
+        <v>3182</v>
       </c>
       <c r="C41" s="13">
-        <v>3168</v>
+        <v>3246</v>
       </c>
       <c r="D41" s="14">
-        <v>-6.9000000000000006E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="E41" s="13">
         <v>0</v>
@@ -2701,10 +2701,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="13">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="H41" s="13">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="13">
-        <v>2726</v>
+        <v>2990</v>
       </c>
       <c r="L41" s="13">
-        <v>2947</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2724,13 +2724,13 @@
         <v>51</v>
       </c>
       <c r="B42" s="16">
-        <v>1729</v>
+        <v>1949</v>
       </c>
       <c r="C42" s="16">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="D42" s="17">
-        <v>-0.12</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="E42" s="16">
         <v>0</v>
@@ -2739,10 +2739,10 @@
         <v>0</v>
       </c>
       <c r="G42" s="16">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="H42" s="16">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="I42" s="16">
         <v>0</v>
@@ -2751,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="K42" s="16">
-        <v>1505</v>
+        <v>1757</v>
       </c>
       <c r="L42" s="16">
-        <v>1743</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2762,13 +2762,13 @@
         <v>52</v>
       </c>
       <c r="B43" s="16">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="C43" s="16">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="D43" s="17">
-        <v>0.34</v>
+        <v>-0.1</v>
       </c>
       <c r="E43" s="16">
         <v>0</v>
@@ -2789,10 +2789,10 @@
         <v>0</v>
       </c>
       <c r="K43" s="16">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="L43" s="16">
-        <v>85</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2800,13 +2800,13 @@
         <v>53</v>
       </c>
       <c r="B44" s="16">
-        <v>700</v>
+        <v>671</v>
       </c>
       <c r="C44" s="16">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D44" s="17">
-        <v>-2.3E-2</v>
+        <v>-5.8999999999999997E-2</v>
       </c>
       <c r="E44" s="16">
         <v>0</v>
@@ -2827,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="K44" s="16">
-        <v>700</v>
+        <v>671</v>
       </c>
       <c r="L44" s="16">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2841,10 +2841,10 @@
         <v>407</v>
       </c>
       <c r="C45" s="16">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D45" s="17">
-        <v>1.4E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E45" s="16">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         <v>407</v>
       </c>
       <c r="L45" s="16">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2876,22 +2876,22 @@
         <v>55</v>
       </c>
       <c r="B46" s="13">
-        <v>3045</v>
+        <v>3239</v>
       </c>
       <c r="C46" s="13">
-        <v>3284</v>
+        <v>3109</v>
       </c>
       <c r="D46" s="14">
-        <v>-7.2999999999999995E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="E46" s="13">
         <v>0</v>
       </c>
       <c r="F46" s="13">
-        <v>266</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G46" s="13">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="H46" s="13">
         <v>0</v>
@@ -2903,10 +2903,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="13">
-        <v>3045</v>
+        <v>3063</v>
       </c>
       <c r="L46" s="13">
-        <v>3018</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2914,13 +2914,13 @@
         <v>56</v>
       </c>
       <c r="B47" s="16">
-        <v>639</v>
+        <v>665</v>
       </c>
       <c r="C47" s="16">
-        <v>675</v>
+        <v>722</v>
       </c>
       <c r="D47" s="17">
-        <v>-5.3999999999999999E-2</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="E47" s="16">
         <v>0</v>
@@ -2941,10 +2941,10 @@
         <v>0</v>
       </c>
       <c r="K47" s="16">
-        <v>639</v>
+        <v>665</v>
       </c>
       <c r="L47" s="16">
-        <v>675</v>
+        <v>722</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2952,13 +2952,13 @@
         <v>57</v>
       </c>
       <c r="B48" s="16">
-        <v>1725</v>
+        <v>1733</v>
       </c>
       <c r="C48" s="16">
-        <v>1698</v>
+        <v>1605</v>
       </c>
       <c r="D48" s="17">
-        <v>1.6E-2</v>
+        <v>0.08</v>
       </c>
       <c r="E48" s="16">
         <v>0</v>
@@ -2979,10 +2979,10 @@
         <v>0</v>
       </c>
       <c r="K48" s="16">
-        <v>1725</v>
+        <v>1733</v>
       </c>
       <c r="L48" s="16">
-        <v>1698</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2990,13 +2990,13 @@
         <v>58</v>
       </c>
       <c r="B49" s="16">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C49" s="16">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D49" s="17">
-        <v>-0.13</v>
+        <v>-5.8999999999999997E-2</v>
       </c>
       <c r="E49" s="16">
         <v>0</v>
@@ -3017,10 +3017,10 @@
         <v>0</v>
       </c>
       <c r="K49" s="16">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L49" s="16">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3028,22 +3028,22 @@
         <v>59</v>
       </c>
       <c r="B50" s="16">
-        <v>583</v>
+        <v>739</v>
       </c>
       <c r="C50" s="16">
-        <v>798</v>
+        <v>673</v>
       </c>
       <c r="D50" s="17">
-        <v>-0.27</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="E50" s="16">
         <v>0</v>
       </c>
       <c r="F50" s="16">
-        <v>266</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G50" s="16">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="H50" s="16">
         <v>0</v>
@@ -3055,10 +3055,10 @@
         <v>0</v>
       </c>
       <c r="K50" s="16">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="L50" s="16">
-        <v>532</v>
+        <v>673</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3066,13 +3066,13 @@
         <v>60</v>
       </c>
       <c r="B51" s="13">
-        <v>713</v>
+        <v>777</v>
       </c>
       <c r="C51" s="13">
-        <v>805</v>
+        <v>763</v>
       </c>
       <c r="D51" s="14">
-        <v>-0.11</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E51" s="13">
         <v>0</v>
@@ -3081,10 +3081,10 @@
         <v>0</v>
       </c>
       <c r="G51" s="13">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="H51" s="13">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="I51" s="13">
         <v>0</v>
@@ -3093,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="K51" s="13">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="L51" s="13">
-        <v>485</v>
+        <v>433</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3104,13 +3104,13 @@
         <v>61</v>
       </c>
       <c r="B52" s="16">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="C52" s="16">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D52" s="17">
-        <v>3.2000000000000001E-2</v>
+        <v>0.12</v>
       </c>
       <c r="E52" s="16">
         <v>0</v>
@@ -3119,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="16">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="H52" s="16">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="I52" s="16">
         <v>0</v>
@@ -3145,10 +3145,10 @@
         <v>0</v>
       </c>
       <c r="C53" s="16">
-        <v>0</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D53" s="17">
+        <v>-1</v>
       </c>
       <c r="E53" s="16">
         <v>0</v>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="16">
         <v>0</v>
@@ -3180,13 +3180,13 @@
         <v>63</v>
       </c>
       <c r="B54" s="16">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="C54" s="16">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="D54" s="17">
-        <v>-0.19</v>
+        <v>-3.5999999999999997E-2</v>
       </c>
       <c r="E54" s="16">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="G54" s="16">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H54" s="16">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I54" s="16">
         <v>0</v>
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="K54" s="16">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="L54" s="16">
-        <v>436</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -3221,7 +3221,7 @@
         <v>14</v>
       </c>
       <c r="C55" s="16">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>14</v>
@@ -3248,7 +3248,7 @@
         <v>14</v>
       </c>
       <c r="L55" s="16">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3408,25 +3408,25 @@
         <v>69</v>
       </c>
       <c r="B60" s="13">
-        <v>5491</v>
+        <v>5127</v>
       </c>
       <c r="C60" s="13">
-        <v>6208</v>
+        <v>6333</v>
       </c>
       <c r="D60" s="14">
-        <v>-0.12</v>
+        <v>-0.19</v>
       </c>
       <c r="E60" s="13">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="F60" s="13">
-        <v>496</v>
+        <v>448</v>
       </c>
       <c r="G60" s="13">
-        <v>3435</v>
+        <v>3107</v>
       </c>
       <c r="H60" s="13">
-        <v>3927</v>
+        <v>4110</v>
       </c>
       <c r="I60" s="13">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="K60" s="13">
-        <v>1604</v>
+        <v>1594</v>
       </c>
       <c r="L60" s="13">
-        <v>1786</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3446,13 +3446,13 @@
         <v>70</v>
       </c>
       <c r="B61" s="16">
-        <v>3530</v>
+        <v>3196</v>
       </c>
       <c r="C61" s="16">
-        <v>3863</v>
+        <v>4070</v>
       </c>
       <c r="D61" s="17">
-        <v>-8.5999999999999993E-2</v>
+        <v>-0.21</v>
       </c>
       <c r="E61" s="16">
         <v>0</v>
@@ -3461,10 +3461,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="16">
-        <v>3265</v>
+        <v>2920</v>
       </c>
       <c r="H61" s="16">
-        <v>3579</v>
+        <v>3764</v>
       </c>
       <c r="I61" s="16">
         <v>0</v>
@@ -3473,10 +3473,10 @@
         <v>0</v>
       </c>
       <c r="K61" s="16">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="L61" s="16">
-        <v>284</v>
+        <v>306</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3484,13 +3484,13 @@
         <v>71</v>
       </c>
       <c r="B62" s="16">
-        <v>471</v>
+        <v>512</v>
       </c>
       <c r="C62" s="16">
-        <v>825</v>
+        <v>808</v>
       </c>
       <c r="D62" s="17">
-        <v>-0.43</v>
+        <v>-0.37</v>
       </c>
       <c r="E62" s="16">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         <v>14</v>
       </c>
       <c r="H62" s="16">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I62" s="16">
         <v>0</v>
@@ -3511,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="K62" s="16">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="L62" s="16">
-        <v>478</v>
+        <v>461</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3522,19 +3522,19 @@
         <v>72</v>
       </c>
       <c r="B63" s="16">
-        <v>1490</v>
+        <v>1419</v>
       </c>
       <c r="C63" s="16">
-        <v>1520</v>
+        <v>1456</v>
       </c>
       <c r="D63" s="17">
-        <v>-0.02</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="E63" s="16">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="F63" s="16">
-        <v>496</v>
+        <v>448</v>
       </c>
       <c r="G63" s="16">
         <v>0</v>
@@ -3549,10 +3549,10 @@
         <v>0</v>
       </c>
       <c r="K63" s="16">
-        <v>1038</v>
+        <v>993</v>
       </c>
       <c r="L63" s="16">
-        <v>1024</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3674,37 +3674,37 @@
         <v>76</v>
       </c>
       <c r="B67" s="13">
-        <v>28597</v>
+        <v>29901</v>
       </c>
       <c r="C67" s="13">
-        <v>30952</v>
+        <v>32840</v>
       </c>
       <c r="D67" s="14">
-        <v>-7.5999999999999998E-2</v>
+        <v>-0.09</v>
       </c>
       <c r="E67" s="13">
-        <v>2676</v>
+        <v>2839</v>
       </c>
       <c r="F67" s="13">
-        <v>3269</v>
+        <v>3484</v>
       </c>
       <c r="G67" s="13">
-        <v>10881</v>
+        <v>11531</v>
       </c>
       <c r="H67" s="13">
-        <v>12065</v>
+        <v>13457</v>
       </c>
       <c r="I67" s="13">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J67" s="13">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="K67" s="13">
-        <v>15003</v>
+        <v>15500</v>
       </c>
       <c r="L67" s="13">
-        <v>15577</v>
+        <v>15880</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
